--- a/Question_Sets/Software skills/Microsoft PowerPoint.xlsx
+++ b/Question_Sets/Software skills/Microsoft PowerPoint.xlsx
@@ -16,23 +16,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As a business analyst, you are preparing a PowerPoint presentation for a client meeting tomorrow. The presentation, optimized for wide screens with a 16:9 aspect ratio, needs to be adjusted, as the client’s meeting room has an old-fashioned screen with a 4:3 aspect ratio. It is essential that no content is cropped.Which action should you take?', 'ques_type': 2, 'options': ['Click Design &amp;gt Slide Size &amp;gt Standard &amp;gt Ensure fit.', 'Open the View tab &amp;gt select Fit to window.', 'Click Design &amp;gt Slide Size &amp;gt Standard &amp;gt Maximize.', 'Open the Home tab &amp;gt select a different layout from the Layout drop-down menu.'], 'score': 'Click Design &amp;gt Slide Size &amp;gt Standard &amp;gt Ensure fit.'}, {'title': 'As a marketing manager, you have prepared a PowerPoint presentation that includes an image you have cropped sensitive information out of. You need to share this presentation with external stakeholders and want to ensure they cannot access or view the cropped portion of the image.Which action should you take?', 'ques_type': 2, 'options': ['Save the presentation before sending.', 'Use the Save as Picture feature for the cropped image, then reinsert it.', 'Compress the images in the presentation.', 'Apply a password to the presentation.'], 'score': 'Compress the images in the presentation.'}, {'title': 'As a project manager, you are reviewing a PowerPoint presentation for an upcoming product launch. The presentation includes various objects with different animation delays and durations. You want to understand the animation setup of each slide, as well as their respective settings.What action should you take?', 'ques_type': 2, 'options': ['Open the Home tab &amp;gt enable the Selection Pane.', 'Press Control(PC)/Command(Mac) + A.', 'Select each object that has an animation indicator one by one.', 'Open the Animations tab &amp;gt enable the Animation Pane.'], 'score': 'Open the Animations tab &amp;gt enable the Animation Pane.'}, {'title': 'You are going to present PowerPoint slides during an upcoming sales meeting. You plan to connect your laptop to the projector and describe the product to the audience. To not miss anything, you want to have talking points near your eyes when you give your presentation.Which actions should you take to present most professionally?', 'ques_type': 15, 'options': ['Write your talking points in a separate Word document.', 'Open the Review tab &amp;gt add notes to the slides as comments.', 'Open the View tab &amp;gt enable the Notes Pane &amp;gt add notes to the slides.', 'Print the PowerPoint file using the Notes Pages layout.', 'Refer to a separate Word document during the presentation.', 'Use Presenter View during the presentation.'], 'score': ['Open the View tab &amp;gt enable the Notes Pane &amp;gt add notes to the slides.', 'Use Presenter View during the presentation.']}]</t>
+    <t>questions = [
+    {
+        "title": "As a business analyst, you are preparing a PowerPoint presentation for a client meeting tomorrow. The presentation, optimized for wide screens with a 16:9 aspect ratio, needs to be adjusted, as the client\u2019s meeting room has an old-fashioned screen with a 4:3 aspect ratio. It is essential that no content is cropped.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Click Design &amp;gt Slide Size &amp;gt Standard &amp;gt Ensure fit.",
+            "Open the View tab &amp;gt select Fit to window.",
+            "Click Design &amp;gt Slide Size &amp;gt Standard &amp;gt Maximize.",
+            "Open the Home tab &amp;gt select a different layout from the Layout drop-down menu."
+        ],
+        "score": "Click Design &amp;gt Slide Size &amp;gt Standard &amp;gt Ensure fit."
+    },
+    {
+        "title": "As a marketing manager, you have prepared a PowerPoint presentation that includes an image you have cropped sensitive information out of. You need to share this presentation with external stakeholders and want to ensure they cannot access or view the cropped portion of the image.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Save the presentation before sending.",
+            "Use the Save as Picture feature for the cropped image, then reinsert it.",
+            "Compress the images in the presentation.",
+            "Apply a password to the presentation."
+        ],
+        "score": "Compress the images in the presentation."
+    },
+    {
+        "title": "As a project manager, you are reviewing a PowerPoint presentation for an upcoming product launch. The presentation includes various objects with different animation delays and durations. You want to understand the animation setup of each slide, as well as their respective settings.What action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Open the Home tab &amp;gt enable the Selection Pane.",
+            "Press Control(PC)/Command(Mac) + A.",
+            "Select each object that has an animation indicator one by one.",
+            "Open the Animations tab &amp;gt enable the Animation Pane."
+        ],
+        "score": "Open the Animations tab &amp;gt enable the Animation Pane."
+    },
+    {
+        "title": "You are going to present PowerPoint slides during an upcoming sales meeting. You plan to connect your laptop to the projector and describe the product to the audience. To not miss anything, you want to have talking points near your eyes when you give your presentation.Which actions should you take to present most professionally?",
+        "ques_type": 15,
+        "options": [
+            "Write your talking points in a separate Word document.",
+            "Open the Review tab &amp;gt add notes to the slides as comments.",
+            "Open the View tab &amp;gt enable the Notes Pane &amp;gt add notes to the slides.",
+            "Print the PowerPoint file using the Notes Pages layout.",
+            "Refer to a separate Word document during the presentation.",
+            "Use Presenter View during the presentation."
+        ],
+        "score": [
+            "Open the View tab &amp;gt enable the Notes Pane &amp;gt add notes to the slides.",
+            "Use Presenter View during the presentation."
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +98,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
